--- a/Templates/F106Template.xlsx
+++ b/Templates/F106Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denr01\Desktop\Debug\auto106_data\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vbif3\source\Repos\sdt-7sem-cw\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="ВТ предв. Ф-106" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>МИНОБРНАУКИ РОССИИ</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Допуск к защите,  рецензирование</t>
   </si>
   <si>
-    <t>КАФЕДРЫ ____________________ НА (ЗА) %year_from_full/%year_to_full УЧЕБНЫЙ ГОД</t>
-  </si>
-  <si>
     <t>%num</t>
   </si>
   <si>
@@ -175,12 +172,6 @@
     <t>%subj_aspir_management</t>
   </si>
   <si>
-    <t>%end</t>
-  </si>
-  <si>
-    <t>%summ_end</t>
-  </si>
-  <si>
     <t>%line_summ</t>
   </si>
   <si>
@@ -188,13 +179,84 @@
   </si>
   <si>
     <t>%dopzash</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">КАФЕДРЫ </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%department</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> НА (ЗА) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%startYear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%endYear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> УЧЕБНЫЙ ГОД</t>
+    </r>
+  </si>
+  <si>
+    <t>Заведующий кафедрой _________________________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +308,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -261,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,13 +361,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +434,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,20 +455,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
     <cellStyle name="Обычный 2_Титул" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -358,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +557,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,426 +838,464 @@
     <col min="25" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
       <c r="T2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
       <c r="T3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-    </row>
-    <row r="14" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="12" t="s">
+      <c r="L14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
-      <c r="X14" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="24">
+        <f>SUM(F14:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" ref="G16:T16" si="0">SUM(G14:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
@@ -1170,8 +1367,10 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="P19" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="20"/>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
@@ -2073,7 +2272,24 @@
       <c r="Y52"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A7:U7"/>
+    <mergeCell ref="A8:U8"/>
+    <mergeCell ref="F10:S11"/>
+    <mergeCell ref="T10:T13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
@@ -2090,22 +2306,6 @@
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="S12:S13"/>
-    <mergeCell ref="F10:S11"/>
-    <mergeCell ref="T10:T13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A7:U7"/>
-    <mergeCell ref="A8:U8"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
